--- a/data/trans_dic/iP30A2_2023_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A2_2023_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/iP30A2_2023_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A2_2023_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -50,34 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -504,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -520,15 +492,6 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -540,88 +503,34 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+          <t>Niña</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Niño</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -633,15 +542,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>65,23%</t>
         </is>
       </c>
     </row>
@@ -724,62 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>49,6; 71,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>57,11; 78,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,64</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,18</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,87</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,91</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,74</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,56</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,45</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,48</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,85</t>
+          <t>57,48; 72,65</t>
         </is>
       </c>
     </row>
@@ -796,62 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>71,42%</t>
         </is>
       </c>
     </row>
@@ -864,62 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>62,55; 75,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>67,19; 78,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,69</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,51</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,56</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,58</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,74</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,36</t>
+          <t>67,34; 75,57</t>
         </is>
       </c>
     </row>
@@ -936,62 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>67,31%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>62,68; 74,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>59,66; 71,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,79</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,0</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,86</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,7</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,82</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,48</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,42</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,4</t>
+          <t>63,26; 71,59</t>
         </is>
       </c>
     </row>
@@ -1076,62 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>57,55%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>36,55; 61,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>55,6; 68,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,56</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,67</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,79</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,78</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,56</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,32</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,38</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,4</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
+          <t>47,78; 62,73</t>
         </is>
       </c>
     </row>
@@ -1216,62 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,13%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>64,13%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>52,88; 65,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>62,63; 69,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
+          <t>59,15; 66,59</t>
         </is>
       </c>
     </row>
@@ -1351,16 +801,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
